--- a/assets/files/us_historical_probs_8_29_25.xlsx
+++ b/assets/files/us_historical_probs_8_29_25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpiger/Library/CloudStorage/Dropbox/Work/WebSite/BusinessCycleDates/National/2025/August 29, 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpiger/Library/CloudStorage/Dropbox/Work/WebSite/jeremy-piger-mm-website/assets/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCEF3424-99ED-7D4B-9076-42A072A1DE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F05437-7758-514C-8E74-E3388BCB7A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{AF3685ED-F121-0940-91A7-68447D6C47B7}"/>
   </bookViews>
@@ -17,10 +17,6 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5961,7 +5957,7 @@
         <v>43891</v>
       </c>
       <c r="B634" s="2">
-        <v>3.99999999999956E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
@@ -5969,7 +5965,7 @@
         <v>43922</v>
       </c>
       <c r="B635" s="2">
-        <v>1.3999999999999601E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
